--- a/7/1/1/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
+++ b/7/1/1/3/1/Series originales 1996 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>Serie</t>
   </si>
@@ -422,6 +422,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI102"/>
+  <dimension ref="A1:AI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -953,6 +956,12 @@
       <c r="Z2">
         <v>665</v>
       </c>
+      <c r="AA2">
+        <v>333</v>
+      </c>
+      <c r="AB2">
+        <v>333</v>
+      </c>
       <c r="AC2">
         <v>750</v>
       </c>
@@ -961,6 +970,9 @@
       </c>
       <c r="AE2">
         <v>325</v>
+      </c>
+      <c r="AF2">
+        <v>7290</v>
       </c>
       <c r="AG2">
         <v>559</v>
@@ -1033,6 +1045,12 @@
       <c r="Z3">
         <v>721</v>
       </c>
+      <c r="AA3">
+        <v>352</v>
+      </c>
+      <c r="AB3">
+        <v>369</v>
+      </c>
       <c r="AC3">
         <v>758</v>
       </c>
@@ -1041,6 +1059,9 @@
       </c>
       <c r="AE3">
         <v>333</v>
+      </c>
+      <c r="AF3">
+        <v>7268</v>
       </c>
       <c r="AG3">
         <v>565</v>
@@ -1113,6 +1134,12 @@
       <c r="Z4">
         <v>744</v>
       </c>
+      <c r="AA4">
+        <v>368</v>
+      </c>
+      <c r="AB4">
+        <v>376</v>
+      </c>
       <c r="AC4">
         <v>779</v>
       </c>
@@ -1121,6 +1148,9 @@
       </c>
       <c r="AE4">
         <v>338</v>
+      </c>
+      <c r="AF4">
+        <v>6871</v>
       </c>
       <c r="AG4">
         <v>567</v>
@@ -1193,6 +1223,12 @@
       <c r="Z5">
         <v>796</v>
       </c>
+      <c r="AA5">
+        <v>388</v>
+      </c>
+      <c r="AB5">
+        <v>408</v>
+      </c>
       <c r="AC5">
         <v>822</v>
       </c>
@@ -1201,6 +1237,9 @@
       </c>
       <c r="AE5">
         <v>360</v>
+      </c>
+      <c r="AF5">
+        <v>7756</v>
       </c>
       <c r="AG5">
         <v>620</v>
@@ -1273,6 +1312,12 @@
       <c r="Z6">
         <v>823</v>
       </c>
+      <c r="AA6">
+        <v>425</v>
+      </c>
+      <c r="AB6">
+        <v>399</v>
+      </c>
       <c r="AC6">
         <v>862</v>
       </c>
@@ -1281,6 +1326,9 @@
       </c>
       <c r="AE6">
         <v>367</v>
+      </c>
+      <c r="AF6">
+        <v>8058</v>
       </c>
       <c r="AG6">
         <v>585</v>
@@ -1353,6 +1401,12 @@
       <c r="Z7">
         <v>835</v>
       </c>
+      <c r="AA7">
+        <v>413</v>
+      </c>
+      <c r="AB7">
+        <v>422</v>
+      </c>
       <c r="AC7">
         <v>862</v>
       </c>
@@ -1361,6 +1415,9 @@
       </c>
       <c r="AE7">
         <v>384</v>
+      </c>
+      <c r="AF7">
+        <v>8003</v>
       </c>
       <c r="AG7">
         <v>583</v>
@@ -1433,6 +1490,12 @@
       <c r="Z8">
         <v>817</v>
       </c>
+      <c r="AA8">
+        <v>399</v>
+      </c>
+      <c r="AB8">
+        <v>418</v>
+      </c>
       <c r="AC8">
         <v>864</v>
       </c>
@@ -1441,6 +1504,9 @@
       </c>
       <c r="AE8">
         <v>391</v>
+      </c>
+      <c r="AF8">
+        <v>7687</v>
       </c>
       <c r="AG8">
         <v>604</v>
@@ -1513,6 +1579,12 @@
       <c r="Z9">
         <v>882</v>
       </c>
+      <c r="AA9">
+        <v>406</v>
+      </c>
+      <c r="AB9">
+        <v>477</v>
+      </c>
       <c r="AC9">
         <v>884</v>
       </c>
@@ -1521,6 +1593,9 @@
       </c>
       <c r="AE9">
         <v>411</v>
+      </c>
+      <c r="AF9">
+        <v>8662</v>
       </c>
       <c r="AG9">
         <v>685</v>
@@ -1593,6 +1668,12 @@
       <c r="Z10">
         <v>897</v>
       </c>
+      <c r="AA10">
+        <v>415</v>
+      </c>
+      <c r="AB10">
+        <v>483</v>
+      </c>
       <c r="AC10">
         <v>872</v>
       </c>
@@ -1601,6 +1682,9 @@
       </c>
       <c r="AE10">
         <v>406</v>
+      </c>
+      <c r="AF10">
+        <v>8657</v>
       </c>
       <c r="AG10">
         <v>665</v>
@@ -1673,6 +1757,12 @@
       <c r="Z11">
         <v>931</v>
       </c>
+      <c r="AA11">
+        <v>399</v>
+      </c>
+      <c r="AB11">
+        <v>532</v>
+      </c>
       <c r="AC11">
         <v>839</v>
       </c>
@@ -1681,6 +1771,9 @@
       </c>
       <c r="AE11">
         <v>419</v>
+      </c>
+      <c r="AF11">
+        <v>8571</v>
       </c>
       <c r="AG11">
         <v>684</v>
@@ -1753,6 +1846,12 @@
       <c r="Z12">
         <v>916</v>
       </c>
+      <c r="AA12">
+        <v>383</v>
+      </c>
+      <c r="AB12">
+        <v>533</v>
+      </c>
       <c r="AC12">
         <v>825</v>
       </c>
@@ -1761,6 +1860,9 @@
       </c>
       <c r="AE12">
         <v>428</v>
+      </c>
+      <c r="AF12">
+        <v>8127</v>
       </c>
       <c r="AG12">
         <v>679</v>
@@ -1833,6 +1935,12 @@
       <c r="Z13">
         <v>944</v>
       </c>
+      <c r="AA13">
+        <v>374</v>
+      </c>
+      <c r="AB13">
+        <v>569</v>
+      </c>
       <c r="AC13">
         <v>838</v>
       </c>
@@ -1841,6 +1949,9 @@
       </c>
       <c r="AE13">
         <v>455</v>
+      </c>
+      <c r="AF13">
+        <v>8601</v>
       </c>
       <c r="AG13">
         <v>722</v>
@@ -1913,6 +2024,12 @@
       <c r="Z14">
         <v>901</v>
       </c>
+      <c r="AA14">
+        <v>377</v>
+      </c>
+      <c r="AB14">
+        <v>525</v>
+      </c>
       <c r="AC14">
         <v>834</v>
       </c>
@@ -1921,6 +2038,9 @@
       </c>
       <c r="AE14">
         <v>460</v>
+      </c>
+      <c r="AF14">
+        <v>8542</v>
       </c>
       <c r="AG14">
         <v>673</v>
@@ -1993,6 +2113,12 @@
       <c r="Z15">
         <v>954</v>
       </c>
+      <c r="AA15">
+        <v>387</v>
+      </c>
+      <c r="AB15">
+        <v>568</v>
+      </c>
       <c r="AC15">
         <v>811</v>
       </c>
@@ -2001,6 +2127,9 @@
       </c>
       <c r="AE15">
         <v>472</v>
+      </c>
+      <c r="AF15">
+        <v>8433</v>
       </c>
       <c r="AG15">
         <v>679</v>
@@ -2073,6 +2202,12 @@
       <c r="Z16">
         <v>951</v>
       </c>
+      <c r="AA16">
+        <v>386</v>
+      </c>
+      <c r="AB16">
+        <v>565</v>
+      </c>
       <c r="AC16">
         <v>806</v>
       </c>
@@ -2081,6 +2216,9 @@
       </c>
       <c r="AE16">
         <v>477</v>
+      </c>
+      <c r="AF16">
+        <v>8284</v>
       </c>
       <c r="AG16">
         <v>701</v>
@@ -2153,6 +2291,12 @@
       <c r="Z17">
         <v>1055</v>
       </c>
+      <c r="AA17">
+        <v>418</v>
+      </c>
+      <c r="AB17">
+        <v>638</v>
+      </c>
       <c r="AC17">
         <v>834</v>
       </c>
@@ -2161,6 +2305,9 @@
       </c>
       <c r="AE17">
         <v>492</v>
+      </c>
+      <c r="AF17">
+        <v>9506</v>
       </c>
       <c r="AG17">
         <v>797</v>
@@ -2233,6 +2380,12 @@
       <c r="Z18">
         <v>1057</v>
       </c>
+      <c r="AA18">
+        <v>452</v>
+      </c>
+      <c r="AB18">
+        <v>605</v>
+      </c>
       <c r="AC18">
         <v>834</v>
       </c>
@@ -2241,6 +2394,9 @@
       </c>
       <c r="AE18">
         <v>489</v>
+      </c>
+      <c r="AF18">
+        <v>9508</v>
       </c>
       <c r="AG18">
         <v>752</v>
@@ -2313,6 +2469,12 @@
       <c r="Z19">
         <v>1131</v>
       </c>
+      <c r="AA19">
+        <v>471</v>
+      </c>
+      <c r="AB19">
+        <v>660</v>
+      </c>
       <c r="AC19">
         <v>814</v>
       </c>
@@ -2321,6 +2483,9 @@
       </c>
       <c r="AE19">
         <v>500</v>
+      </c>
+      <c r="AF19">
+        <v>9315</v>
       </c>
       <c r="AG19">
         <v>754</v>
@@ -2393,6 +2558,12 @@
       <c r="Z20">
         <v>1153</v>
       </c>
+      <c r="AA20">
+        <v>487</v>
+      </c>
+      <c r="AB20">
+        <v>666</v>
+      </c>
       <c r="AC20">
         <v>818</v>
       </c>
@@ -2401,6 +2572,9 @@
       </c>
       <c r="AE20">
         <v>508</v>
+      </c>
+      <c r="AF20">
+        <v>9121</v>
       </c>
       <c r="AG20">
         <v>772</v>
@@ -2473,6 +2647,12 @@
       <c r="Z21">
         <v>1234</v>
       </c>
+      <c r="AA21">
+        <v>509</v>
+      </c>
+      <c r="AB21">
+        <v>725</v>
+      </c>
       <c r="AC21">
         <v>859</v>
       </c>
@@ -2481,6 +2661,9 @@
       </c>
       <c r="AE21">
         <v>525</v>
+      </c>
+      <c r="AF21">
+        <v>10237</v>
       </c>
       <c r="AG21">
         <v>850</v>
@@ -2553,6 +2736,12 @@
       <c r="Z22">
         <v>1205</v>
       </c>
+      <c r="AA22">
+        <v>528</v>
+      </c>
+      <c r="AB22">
+        <v>677</v>
+      </c>
       <c r="AC22">
         <v>889</v>
       </c>
@@ -2561,6 +2750,9 @@
       </c>
       <c r="AE22">
         <v>525</v>
+      </c>
+      <c r="AF22">
+        <v>10110</v>
       </c>
       <c r="AG22">
         <v>797</v>
@@ -2633,6 +2825,12 @@
       <c r="Z23">
         <v>1296</v>
       </c>
+      <c r="AA23">
+        <v>548</v>
+      </c>
+      <c r="AB23">
+        <v>748</v>
+      </c>
       <c r="AC23">
         <v>894</v>
       </c>
@@ -2641,6 +2839,9 @@
       </c>
       <c r="AE23">
         <v>529</v>
+      </c>
+      <c r="AF23">
+        <v>10203</v>
       </c>
       <c r="AG23">
         <v>807</v>
@@ -2713,6 +2914,12 @@
       <c r="Z24">
         <v>1274</v>
       </c>
+      <c r="AA24">
+        <v>541</v>
+      </c>
+      <c r="AB24">
+        <v>733</v>
+      </c>
       <c r="AC24">
         <v>899</v>
       </c>
@@ -2721,6 +2928,9 @@
       </c>
       <c r="AE24">
         <v>525</v>
+      </c>
+      <c r="AF24">
+        <v>9838</v>
       </c>
       <c r="AG24">
         <v>830</v>
@@ -2793,6 +3003,12 @@
       <c r="Z25">
         <v>1347</v>
       </c>
+      <c r="AA25">
+        <v>555</v>
+      </c>
+      <c r="AB25">
+        <v>792</v>
+      </c>
       <c r="AC25">
         <v>930</v>
       </c>
@@ -2801,6 +3017,9 @@
       </c>
       <c r="AE25">
         <v>541</v>
+      </c>
+      <c r="AF25">
+        <v>10904</v>
       </c>
       <c r="AG25">
         <v>919</v>
@@ -2873,6 +3092,12 @@
       <c r="Z26">
         <v>1296</v>
       </c>
+      <c r="AA26">
+        <v>564</v>
+      </c>
+      <c r="AB26">
+        <v>733</v>
+      </c>
       <c r="AC26">
         <v>931</v>
       </c>
@@ -2881,6 +3106,9 @@
       </c>
       <c r="AE26">
         <v>546</v>
+      </c>
+      <c r="AF26">
+        <v>10716</v>
       </c>
       <c r="AG26">
         <v>886</v>
@@ -2953,6 +3181,12 @@
       <c r="Z27">
         <v>1393</v>
       </c>
+      <c r="AA27">
+        <v>577</v>
+      </c>
+      <c r="AB27">
+        <v>816</v>
+      </c>
       <c r="AC27">
         <v>922</v>
       </c>
@@ -2961,6 +3195,9 @@
       </c>
       <c r="AE27">
         <v>546</v>
+      </c>
+      <c r="AF27">
+        <v>10684</v>
       </c>
       <c r="AG27">
         <v>898</v>
@@ -3033,6 +3270,12 @@
       <c r="Z28">
         <v>1397</v>
       </c>
+      <c r="AA28">
+        <v>574</v>
+      </c>
+      <c r="AB28">
+        <v>824</v>
+      </c>
       <c r="AC28">
         <v>928</v>
       </c>
@@ -3041,6 +3284,9 @@
       </c>
       <c r="AE28">
         <v>541</v>
+      </c>
+      <c r="AF28">
+        <v>10499</v>
       </c>
       <c r="AG28">
         <v>920</v>
@@ -3113,6 +3359,12 @@
       <c r="Z29">
         <v>1492</v>
       </c>
+      <c r="AA29">
+        <v>581</v>
+      </c>
+      <c r="AB29">
+        <v>911</v>
+      </c>
       <c r="AC29">
         <v>974</v>
       </c>
@@ -3121,6 +3373,9 @@
       </c>
       <c r="AE29">
         <v>552</v>
+      </c>
+      <c r="AF29">
+        <v>11788</v>
       </c>
       <c r="AG29">
         <v>1013</v>
@@ -3193,6 +3448,12 @@
       <c r="Z30">
         <v>1409</v>
       </c>
+      <c r="AA30">
+        <v>563</v>
+      </c>
+      <c r="AB30">
+        <v>846</v>
+      </c>
       <c r="AC30">
         <v>991</v>
       </c>
@@ -3201,6 +3462,9 @@
       </c>
       <c r="AE30">
         <v>556</v>
+      </c>
+      <c r="AF30">
+        <v>11742</v>
       </c>
       <c r="AG30">
         <v>945</v>
@@ -3273,6 +3537,12 @@
       <c r="Z31">
         <v>1455</v>
       </c>
+      <c r="AA31">
+        <v>549</v>
+      </c>
+      <c r="AB31">
+        <v>906</v>
+      </c>
       <c r="AC31">
         <v>982</v>
       </c>
@@ -3281,6 +3551,9 @@
       </c>
       <c r="AE31">
         <v>553</v>
+      </c>
+      <c r="AF31">
+        <v>11855</v>
       </c>
       <c r="AG31">
         <v>932</v>
@@ -3353,6 +3626,12 @@
       <c r="Z32">
         <v>1418</v>
       </c>
+      <c r="AA32">
+        <v>531</v>
+      </c>
+      <c r="AB32">
+        <v>887</v>
+      </c>
       <c r="AC32">
         <v>981</v>
       </c>
@@ -3361,6 +3640,9 @@
       </c>
       <c r="AE32">
         <v>561</v>
+      </c>
+      <c r="AF32">
+        <v>11450</v>
       </c>
       <c r="AG32">
         <v>941</v>
@@ -3433,6 +3715,12 @@
       <c r="Z33">
         <v>1596</v>
       </c>
+      <c r="AA33">
+        <v>573</v>
+      </c>
+      <c r="AB33">
+        <v>1023</v>
+      </c>
       <c r="AC33">
         <v>1031</v>
       </c>
@@ -3441,6 +3729,9 @@
       </c>
       <c r="AE33">
         <v>584</v>
+      </c>
+      <c r="AF33">
+        <v>12856</v>
       </c>
       <c r="AG33">
         <v>1071</v>
@@ -3513,6 +3804,12 @@
       <c r="Z34">
         <v>1597</v>
       </c>
+      <c r="AA34">
+        <v>603</v>
+      </c>
+      <c r="AB34">
+        <v>994</v>
+      </c>
       <c r="AC34">
         <v>1039</v>
       </c>
@@ -3521,6 +3818,9 @@
       </c>
       <c r="AE34">
         <v>604</v>
+      </c>
+      <c r="AF34">
+        <v>13127</v>
       </c>
       <c r="AG34">
         <v>1046</v>
@@ -3593,6 +3893,12 @@
       <c r="Z35">
         <v>1675</v>
       </c>
+      <c r="AA35">
+        <v>608</v>
+      </c>
+      <c r="AB35">
+        <v>1066</v>
+      </c>
       <c r="AC35">
         <v>1020</v>
       </c>
@@ -3601,6 +3907,9 @@
       </c>
       <c r="AE35">
         <v>593</v>
+      </c>
+      <c r="AF35">
+        <v>13630</v>
       </c>
       <c r="AG35">
         <v>1065</v>
@@ -3673,6 +3982,12 @@
       <c r="Z36">
         <v>1720</v>
       </c>
+      <c r="AA36">
+        <v>619</v>
+      </c>
+      <c r="AB36">
+        <v>1101</v>
+      </c>
       <c r="AC36">
         <v>1045</v>
       </c>
@@ -3681,6 +3996,9 @@
       </c>
       <c r="AE36">
         <v>601</v>
+      </c>
+      <c r="AF36">
+        <v>13597</v>
       </c>
       <c r="AG36">
         <v>1102</v>
@@ -3753,6 +4071,12 @@
       <c r="Z37">
         <v>1892</v>
       </c>
+      <c r="AA37">
+        <v>650</v>
+      </c>
+      <c r="AB37">
+        <v>1242</v>
+      </c>
       <c r="AC37">
         <v>1112</v>
       </c>
@@ -3761,6 +4085,9 @@
       </c>
       <c r="AE37">
         <v>626</v>
+      </c>
+      <c r="AF37">
+        <v>15152</v>
       </c>
       <c r="AG37">
         <v>1300</v>
@@ -3833,6 +4160,12 @@
       <c r="Z38">
         <v>1829</v>
       </c>
+      <c r="AA38">
+        <v>666</v>
+      </c>
+      <c r="AB38">
+        <v>1163</v>
+      </c>
       <c r="AC38">
         <v>1127</v>
       </c>
@@ -3841,6 +4174,9 @@
       </c>
       <c r="AE38">
         <v>682</v>
+      </c>
+      <c r="AF38">
+        <v>15034</v>
       </c>
       <c r="AG38">
         <v>1224</v>
@@ -3913,6 +4249,12 @@
       <c r="Z39">
         <v>1936</v>
       </c>
+      <c r="AA39">
+        <v>658</v>
+      </c>
+      <c r="AB39">
+        <v>1278</v>
+      </c>
       <c r="AC39">
         <v>1130</v>
       </c>
@@ -3921,6 +4263,9 @@
       </c>
       <c r="AE39">
         <v>676</v>
+      </c>
+      <c r="AF39">
+        <v>15367</v>
       </c>
       <c r="AG39">
         <v>1266</v>
@@ -3993,6 +4338,12 @@
       <c r="Z40">
         <v>1972</v>
       </c>
+      <c r="AA40">
+        <v>647</v>
+      </c>
+      <c r="AB40">
+        <v>1325</v>
+      </c>
       <c r="AC40">
         <v>1164</v>
       </c>
@@ -4001,6 +4352,9 @@
       </c>
       <c r="AE40">
         <v>676</v>
+      </c>
+      <c r="AF40">
+        <v>15303</v>
       </c>
       <c r="AG40">
         <v>1314</v>
@@ -4073,6 +4427,12 @@
       <c r="Z41">
         <v>2165</v>
       </c>
+      <c r="AA41">
+        <v>675</v>
+      </c>
+      <c r="AB41">
+        <v>1489</v>
+      </c>
       <c r="AC41">
         <v>1235</v>
       </c>
@@ -4081,6 +4441,9 @@
       </c>
       <c r="AE41">
         <v>696</v>
+      </c>
+      <c r="AF41">
+        <v>17286</v>
       </c>
       <c r="AG41">
         <v>1513</v>
@@ -4153,6 +4516,12 @@
       <c r="Z42">
         <v>2142</v>
       </c>
+      <c r="AA42">
+        <v>709</v>
+      </c>
+      <c r="AB42">
+        <v>1433</v>
+      </c>
       <c r="AC42">
         <v>1233</v>
       </c>
@@ -4161,6 +4530,9 @@
       </c>
       <c r="AE42">
         <v>759</v>
+      </c>
+      <c r="AF42">
+        <v>17937</v>
       </c>
       <c r="AG42">
         <v>1383</v>
@@ -4233,6 +4605,12 @@
       <c r="Z43">
         <v>2281</v>
       </c>
+      <c r="AA43">
+        <v>715</v>
+      </c>
+      <c r="AB43">
+        <v>1566</v>
+      </c>
       <c r="AC43">
         <v>1213</v>
       </c>
@@ -4241,6 +4619,9 @@
       </c>
       <c r="AE43">
         <v>751</v>
+      </c>
+      <c r="AF43">
+        <v>19137</v>
       </c>
       <c r="AG43">
         <v>1404</v>
@@ -4313,6 +4694,12 @@
       <c r="Z44">
         <v>2334</v>
       </c>
+      <c r="AA44">
+        <v>743</v>
+      </c>
+      <c r="AB44">
+        <v>1591</v>
+      </c>
       <c r="AC44">
         <v>1242</v>
       </c>
@@ -4321,6 +4708,9 @@
       </c>
       <c r="AE44">
         <v>744</v>
+      </c>
+      <c r="AF44">
+        <v>18516</v>
       </c>
       <c r="AG44">
         <v>1428</v>
@@ -4393,6 +4783,12 @@
       <c r="Z45">
         <v>2604</v>
       </c>
+      <c r="AA45">
+        <v>804</v>
+      </c>
+      <c r="AB45">
+        <v>1800</v>
+      </c>
       <c r="AC45">
         <v>1330</v>
       </c>
@@ -4401,6 +4797,9 @@
       </c>
       <c r="AE45">
         <v>758</v>
+      </c>
+      <c r="AF45">
+        <v>20083</v>
       </c>
       <c r="AG45">
         <v>1620</v>
@@ -4473,6 +4872,12 @@
       <c r="Z46">
         <v>2643</v>
       </c>
+      <c r="AA46">
+        <v>895</v>
+      </c>
+      <c r="AB46">
+        <v>1748</v>
+      </c>
       <c r="AC46">
         <v>1369</v>
       </c>
@@ -4481,6 +4886,9 @@
       </c>
       <c r="AE46">
         <v>829</v>
+      </c>
+      <c r="AF46">
+        <v>20553</v>
       </c>
       <c r="AG46">
         <v>1508</v>
@@ -4553,6 +4961,12 @@
       <c r="Z47">
         <v>2772</v>
       </c>
+      <c r="AA47">
+        <v>937</v>
+      </c>
+      <c r="AB47">
+        <v>1834</v>
+      </c>
       <c r="AC47">
         <v>1358</v>
       </c>
@@ -4561,6 +4975,9 @@
       </c>
       <c r="AE47">
         <v>820</v>
+      </c>
+      <c r="AF47">
+        <v>21062</v>
       </c>
       <c r="AG47">
         <v>1522</v>
@@ -4633,6 +5050,12 @@
       <c r="Z48">
         <v>2804</v>
       </c>
+      <c r="AA48">
+        <v>988</v>
+      </c>
+      <c r="AB48">
+        <v>1816</v>
+      </c>
       <c r="AC48">
         <v>1420</v>
       </c>
@@ -4641,6 +5064,9 @@
       </c>
       <c r="AE48">
         <v>817</v>
+      </c>
+      <c r="AF48">
+        <v>19910</v>
       </c>
       <c r="AG48">
         <v>1560</v>
@@ -4713,6 +5139,12 @@
       <c r="Z49">
         <v>3168</v>
       </c>
+      <c r="AA49">
+        <v>1090</v>
+      </c>
+      <c r="AB49">
+        <v>2079</v>
+      </c>
       <c r="AC49">
         <v>1558</v>
       </c>
@@ -4721,6 +5153,9 @@
       </c>
       <c r="AE49">
         <v>853</v>
+      </c>
+      <c r="AF49">
+        <v>22053</v>
       </c>
       <c r="AG49">
         <v>1851</v>
@@ -4793,6 +5228,12 @@
       <c r="Z50">
         <v>3019</v>
       </c>
+      <c r="AA50">
+        <v>1148</v>
+      </c>
+      <c r="AB50">
+        <v>1871</v>
+      </c>
       <c r="AC50">
         <v>1542</v>
       </c>
@@ -4801,6 +5242,9 @@
       </c>
       <c r="AE50">
         <v>907</v>
+      </c>
+      <c r="AF50">
+        <v>22323</v>
       </c>
       <c r="AG50">
         <v>1736</v>
@@ -4873,6 +5317,12 @@
       <c r="Z51">
         <v>3236</v>
       </c>
+      <c r="AA51">
+        <v>1166</v>
+      </c>
+      <c r="AB51">
+        <v>2069</v>
+      </c>
       <c r="AC51">
         <v>1539</v>
       </c>
@@ -4881,6 +5331,9 @@
       </c>
       <c r="AE51">
         <v>935</v>
+      </c>
+      <c r="AF51">
+        <v>21951</v>
       </c>
       <c r="AG51">
         <v>1805</v>
@@ -4953,6 +5406,12 @@
       <c r="Z52">
         <v>3311</v>
       </c>
+      <c r="AA52">
+        <v>1148</v>
+      </c>
+      <c r="AB52">
+        <v>2163</v>
+      </c>
       <c r="AC52">
         <v>1582</v>
       </c>
@@ -4961,6 +5420,9 @@
       </c>
       <c r="AE52">
         <v>956</v>
+      </c>
+      <c r="AF52">
+        <v>19961</v>
       </c>
       <c r="AG52">
         <v>1847</v>
@@ -5033,6 +5495,12 @@
       <c r="Z53">
         <v>3703</v>
       </c>
+      <c r="AA53">
+        <v>1220</v>
+      </c>
+      <c r="AB53">
+        <v>2483</v>
+      </c>
       <c r="AC53">
         <v>1677</v>
       </c>
@@ -5041,6 +5509,9 @@
       </c>
       <c r="AE53">
         <v>1013</v>
+      </c>
+      <c r="AF53">
+        <v>21659</v>
       </c>
       <c r="AG53">
         <v>1999</v>
@@ -5113,6 +5584,12 @@
       <c r="Z54">
         <v>3566</v>
       </c>
+      <c r="AA54">
+        <v>1257</v>
+      </c>
+      <c r="AB54">
+        <v>2309</v>
+      </c>
       <c r="AC54">
         <v>1589</v>
       </c>
@@ -5121,6 +5598,9 @@
       </c>
       <c r="AE54">
         <v>1040</v>
+      </c>
+      <c r="AF54">
+        <v>21297</v>
       </c>
       <c r="AG54">
         <v>1784</v>
@@ -5193,6 +5673,12 @@
       <c r="Z55">
         <v>3605</v>
       </c>
+      <c r="AA55">
+        <v>1223</v>
+      </c>
+      <c r="AB55">
+        <v>2382</v>
+      </c>
       <c r="AC55">
         <v>1542</v>
       </c>
@@ -5201,6 +5687,9 @@
       </c>
       <c r="AE55">
         <v>1059</v>
+      </c>
+      <c r="AF55">
+        <v>21754</v>
       </c>
       <c r="AG55">
         <v>1714</v>
@@ -5273,6 +5762,12 @@
       <c r="Z56">
         <v>3627</v>
       </c>
+      <c r="AA56">
+        <v>1241</v>
+      </c>
+      <c r="AB56">
+        <v>2386</v>
+      </c>
       <c r="AC56">
         <v>1542</v>
       </c>
@@ -5281,6 +5776,9 @@
       </c>
       <c r="AE56">
         <v>1103</v>
+      </c>
+      <c r="AF56">
+        <v>21367</v>
       </c>
       <c r="AG56">
         <v>1737</v>
@@ -5353,6 +5851,12 @@
       <c r="Z57">
         <v>3781</v>
       </c>
+      <c r="AA57">
+        <v>1259</v>
+      </c>
+      <c r="AB57">
+        <v>2522</v>
+      </c>
       <c r="AC57">
         <v>1601</v>
       </c>
@@ -5361,6 +5865,9 @@
       </c>
       <c r="AE57">
         <v>1197</v>
+      </c>
+      <c r="AF57">
+        <v>24664</v>
       </c>
       <c r="AG57">
         <v>1939</v>
@@ -5433,6 +5940,12 @@
       <c r="Z58">
         <v>3688</v>
       </c>
+      <c r="AA58">
+        <v>1279</v>
+      </c>
+      <c r="AB58">
+        <v>2409</v>
+      </c>
       <c r="AC58">
         <v>1695</v>
       </c>
@@ -5441,6 +5954,9 @@
       </c>
       <c r="AE58">
         <v>1194</v>
+      </c>
+      <c r="AF58">
+        <v>23900</v>
       </c>
       <c r="AG58">
         <v>1839</v>
@@ -5513,6 +6029,12 @@
       <c r="Z59">
         <v>3834</v>
       </c>
+      <c r="AA59">
+        <v>1287</v>
+      </c>
+      <c r="AB59">
+        <v>2547</v>
+      </c>
       <c r="AC59">
         <v>1684</v>
       </c>
@@ -5521,6 +6043,9 @@
       </c>
       <c r="AE59">
         <v>1193</v>
+      </c>
+      <c r="AF59">
+        <v>24807</v>
       </c>
       <c r="AG59">
         <v>2001</v>
@@ -5593,6 +6118,12 @@
       <c r="Z60">
         <v>3838</v>
       </c>
+      <c r="AA60">
+        <v>1297</v>
+      </c>
+      <c r="AB60">
+        <v>2541</v>
+      </c>
       <c r="AC60">
         <v>1792</v>
       </c>
@@ -5601,6 +6132,9 @@
       </c>
       <c r="AE60">
         <v>1195</v>
+      </c>
+      <c r="AF60">
+        <v>25362</v>
       </c>
       <c r="AG60">
         <v>2046</v>
@@ -5673,6 +6207,12 @@
       <c r="Z61">
         <v>4155</v>
       </c>
+      <c r="AA61">
+        <v>1361</v>
+      </c>
+      <c r="AB61">
+        <v>2795</v>
+      </c>
       <c r="AC61">
         <v>1914</v>
       </c>
@@ -5681,6 +6221,9 @@
       </c>
       <c r="AE61">
         <v>1262</v>
+      </c>
+      <c r="AF61">
+        <v>28619</v>
       </c>
       <c r="AG61">
         <v>2307</v>
@@ -5753,6 +6296,12 @@
       <c r="Z62">
         <v>4259</v>
       </c>
+      <c r="AA62">
+        <v>1476</v>
+      </c>
+      <c r="AB62">
+        <v>2783</v>
+      </c>
       <c r="AC62">
         <v>1969</v>
       </c>
@@ -5761,6 +6310,9 @@
       </c>
       <c r="AE62">
         <v>1225</v>
+      </c>
+      <c r="AF62">
+        <v>27805</v>
       </c>
       <c r="AG62">
         <v>2169</v>
@@ -5833,6 +6385,12 @@
       <c r="Z63">
         <v>4435</v>
       </c>
+      <c r="AA63">
+        <v>1472</v>
+      </c>
+      <c r="AB63">
+        <v>2963</v>
+      </c>
       <c r="AC63">
         <v>1952</v>
       </c>
@@ -5841,6 +6399,9 @@
       </c>
       <c r="AE63">
         <v>1258</v>
+      </c>
+      <c r="AF63">
+        <v>27751</v>
       </c>
       <c r="AG63">
         <v>2250</v>
@@ -5913,6 +6474,12 @@
       <c r="Z64">
         <v>4490</v>
       </c>
+      <c r="AA64">
+        <v>1495</v>
+      </c>
+      <c r="AB64">
+        <v>2995</v>
+      </c>
       <c r="AC64">
         <v>1998</v>
       </c>
@@ -5921,6 +6488,9 @@
       </c>
       <c r="AE64">
         <v>1296</v>
+      </c>
+      <c r="AF64">
+        <v>26548</v>
       </c>
       <c r="AG64">
         <v>2305</v>
@@ -5993,6 +6563,12 @@
       <c r="Z65">
         <v>4781</v>
       </c>
+      <c r="AA65">
+        <v>1483</v>
+      </c>
+      <c r="AB65">
+        <v>3298</v>
+      </c>
       <c r="AC65">
         <v>2084</v>
       </c>
@@ -6001,6 +6577,9 @@
       </c>
       <c r="AE65">
         <v>1357</v>
+      </c>
+      <c r="AF65">
+        <v>29970</v>
       </c>
       <c r="AG65">
         <v>2623</v>
@@ -6073,6 +6652,12 @@
       <c r="Z66">
         <v>4802</v>
       </c>
+      <c r="AA66">
+        <v>1546</v>
+      </c>
+      <c r="AB66">
+        <v>3256</v>
+      </c>
       <c r="AC66">
         <v>2173</v>
       </c>
@@ -6081,6 +6666,9 @@
       </c>
       <c r="AE66">
         <v>1344</v>
+      </c>
+      <c r="AF66">
+        <v>29255</v>
       </c>
       <c r="AG66">
         <v>2445</v>
@@ -6153,6 +6741,12 @@
       <c r="Z67">
         <v>4930</v>
       </c>
+      <c r="AA67">
+        <v>1496</v>
+      </c>
+      <c r="AB67">
+        <v>3434</v>
+      </c>
       <c r="AC67">
         <v>2162</v>
       </c>
@@ -6161,6 +6755,9 @@
       </c>
       <c r="AE67">
         <v>1380</v>
+      </c>
+      <c r="AF67">
+        <v>29406</v>
       </c>
       <c r="AG67">
         <v>2514</v>
@@ -6233,6 +6830,12 @@
       <c r="Z68">
         <v>4899</v>
       </c>
+      <c r="AA68">
+        <v>1510</v>
+      </c>
+      <c r="AB68">
+        <v>3389</v>
+      </c>
       <c r="AC68">
         <v>2198</v>
       </c>
@@ -6241,6 +6844,9 @@
       </c>
       <c r="AE68">
         <v>1400</v>
+      </c>
+      <c r="AF68">
+        <v>28286</v>
       </c>
       <c r="AG68">
         <v>2544</v>
@@ -6313,6 +6919,12 @@
       <c r="Z69">
         <v>5195</v>
       </c>
+      <c r="AA69">
+        <v>1568</v>
+      </c>
+      <c r="AB69">
+        <v>3627</v>
+      </c>
       <c r="AC69">
         <v>2320</v>
       </c>
@@ -6321,6 +6933,9 @@
       </c>
       <c r="AE69">
         <v>1491</v>
+      </c>
+      <c r="AF69">
+        <v>31927</v>
       </c>
       <c r="AG69">
         <v>2857</v>
@@ -9761,106 +10376,213 @@
         <v>135</v>
       </c>
       <c r="B102">
-        <v>2987</v>
+        <v>3016</v>
       </c>
       <c r="C102">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D102">
-        <v>7823</v>
+        <v>8040</v>
       </c>
       <c r="E102">
-        <v>7166</v>
+        <v>7386</v>
       </c>
       <c r="F102">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G102">
-        <v>5276</v>
+        <v>5300</v>
       </c>
       <c r="H102">
-        <v>2369</v>
+        <v>2405</v>
       </c>
       <c r="I102">
-        <v>1650</v>
+        <v>1656</v>
       </c>
       <c r="J102">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="K102">
         <v>57</v>
       </c>
       <c r="L102">
+        <v>374</v>
+      </c>
+      <c r="M102">
         <v>371</v>
       </c>
-      <c r="M102">
-        <v>375</v>
-      </c>
       <c r="N102">
-        <v>1106</v>
+        <v>1078</v>
       </c>
       <c r="O102">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="P102">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Q102">
         <v>229</v>
       </c>
       <c r="R102">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="S102">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="T102">
-        <v>2990</v>
+        <v>3017</v>
       </c>
       <c r="U102">
-        <v>6770</v>
+        <v>6713</v>
       </c>
       <c r="V102">
-        <v>5856</v>
+        <v>5799</v>
       </c>
       <c r="W102">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="X102">
-        <v>2431</v>
+        <v>2424</v>
       </c>
       <c r="Y102">
-        <v>1132</v>
+        <v>1148</v>
       </c>
       <c r="Z102">
-        <v>7449</v>
+        <v>7463</v>
       </c>
       <c r="AA102">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="AB102">
-        <v>5000</v>
+        <v>5017</v>
       </c>
       <c r="AC102">
-        <v>4226</v>
+        <v>4229</v>
       </c>
       <c r="AD102">
-        <v>6239</v>
+        <v>6218</v>
       </c>
       <c r="AE102">
-        <v>2543</v>
+        <v>2572</v>
       </c>
       <c r="AF102">
-        <v>51610</v>
+        <v>51879</v>
       </c>
       <c r="AG102">
-        <v>4376</v>
+        <v>4338</v>
       </c>
       <c r="AH102">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AI102">
-        <v>56205</v>
+        <v>56433</v>
+      </c>
+    </row>
+    <row r="103" spans="1:35">
+      <c r="A103" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103">
+        <v>1408</v>
+      </c>
+      <c r="C103">
+        <v>201</v>
+      </c>
+      <c r="D103">
+        <v>8711</v>
+      </c>
+      <c r="E103">
+        <v>7899</v>
+      </c>
+      <c r="F103">
+        <v>812</v>
+      </c>
+      <c r="G103">
+        <v>5720</v>
+      </c>
+      <c r="H103">
+        <v>2579</v>
+      </c>
+      <c r="I103">
+        <v>1708</v>
+      </c>
+      <c r="J103">
+        <v>872</v>
+      </c>
+      <c r="K103">
+        <v>61</v>
+      </c>
+      <c r="L103">
+        <v>384</v>
+      </c>
+      <c r="M103">
+        <v>433</v>
+      </c>
+      <c r="N103">
+        <v>1145</v>
+      </c>
+      <c r="O103">
+        <v>398</v>
+      </c>
+      <c r="P103">
+        <v>748</v>
+      </c>
+      <c r="Q103">
+        <v>294</v>
+      </c>
+      <c r="R103">
+        <v>823</v>
+      </c>
+      <c r="S103">
+        <v>1493</v>
+      </c>
+      <c r="T103">
+        <v>3300</v>
+      </c>
+      <c r="U103">
+        <v>6777</v>
+      </c>
+      <c r="V103">
+        <v>5807</v>
+      </c>
+      <c r="W103">
+        <v>970</v>
+      </c>
+      <c r="X103">
+        <v>2096</v>
+      </c>
+      <c r="Y103">
+        <v>1059</v>
+      </c>
+      <c r="Z103">
+        <v>7846</v>
+      </c>
+      <c r="AA103">
+        <v>2473</v>
+      </c>
+      <c r="AB103">
+        <v>5373</v>
+      </c>
+      <c r="AC103">
+        <v>4121</v>
+      </c>
+      <c r="AD103">
+        <v>7300</v>
+      </c>
+      <c r="AE103">
+        <v>2534</v>
+      </c>
+      <c r="AF103">
+        <v>52568</v>
+      </c>
+      <c r="AG103">
+        <v>4657</v>
+      </c>
+      <c r="AH103">
+        <v>202</v>
+      </c>
+      <c r="AI103">
+        <v>57427</v>
       </c>
     </row>
   </sheetData>
